--- a/NRI_STLF_Data/WeatherData/T_esfehan/T_esfehan95.xlsx
+++ b/NRI_STLF_Data/WeatherData/T_esfehan/T_esfehan95.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\NRST\WeatherData\T_esfehan\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\hkhatibzadeh\Load Forecasting\last data 95.6.13\WeatherData\T_esfehan\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -254,12 +254,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="178"/>
       <scheme val="minor"/>
@@ -593,13 +593,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA366"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A129" workbookViewId="0">
-      <selection activeCell="F157" sqref="F157:AA160"/>
+    <sheetView tabSelected="1" topLeftCell="A153" workbookViewId="0">
+      <selection activeCell="F173" sqref="F173"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:27">
       <c r="A1">
         <v>95</v>
       </c>
@@ -676,7 +676,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:27">
       <c r="A2">
         <v>95</v>
       </c>
@@ -756,7 +756,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:27">
       <c r="A3">
         <v>95</v>
       </c>
@@ -836,7 +836,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:27">
       <c r="A4">
         <v>95</v>
       </c>
@@ -913,7 +913,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27">
       <c r="A5">
         <v>95</v>
       </c>
@@ -987,7 +987,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27">
       <c r="A6">
         <v>95</v>
       </c>
@@ -1064,7 +1064,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27">
       <c r="A7">
         <v>95</v>
       </c>
@@ -1141,7 +1141,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27">
       <c r="A8">
         <v>95</v>
       </c>
@@ -1218,7 +1218,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:27">
       <c r="A9">
         <v>95</v>
       </c>
@@ -1295,7 +1295,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:27">
       <c r="A10">
         <v>95</v>
       </c>
@@ -1375,7 +1375,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:27">
       <c r="A11">
         <v>95</v>
       </c>
@@ -1449,7 +1449,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:27">
       <c r="A12">
         <v>95</v>
       </c>
@@ -1526,7 +1526,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:27">
       <c r="A13">
         <v>95</v>
       </c>
@@ -1603,7 +1603,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:27">
       <c r="A14">
         <v>95</v>
       </c>
@@ -1680,7 +1680,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:27">
       <c r="A15">
         <v>95</v>
       </c>
@@ -1757,7 +1757,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:27">
       <c r="A16">
         <v>95</v>
       </c>
@@ -1831,7 +1831,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="17" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:27">
       <c r="A17">
         <v>95</v>
       </c>
@@ -1908,7 +1908,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="18" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:27">
       <c r="A18">
         <v>95</v>
       </c>
@@ -1985,7 +1985,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="19" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:27">
       <c r="A19">
         <v>95</v>
       </c>
@@ -2065,7 +2065,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="20" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:27">
       <c r="A20">
         <v>95</v>
       </c>
@@ -2145,7 +2145,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="21" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:27">
       <c r="A21">
         <v>95</v>
       </c>
@@ -2225,7 +2225,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="22" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:27">
       <c r="A22">
         <v>95</v>
       </c>
@@ -2302,7 +2302,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="23" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:27">
       <c r="A23">
         <v>95</v>
       </c>
@@ -2379,7 +2379,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="24" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:27">
       <c r="A24">
         <v>95</v>
       </c>
@@ -2459,7 +2459,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="25" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:27">
       <c r="A25">
         <v>95</v>
       </c>
@@ -2539,7 +2539,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="26" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:27">
       <c r="A26">
         <v>95</v>
       </c>
@@ -2619,7 +2619,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="27" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:27">
       <c r="A27">
         <v>95</v>
       </c>
@@ -2699,7 +2699,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="28" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:27">
       <c r="A28">
         <v>95</v>
       </c>
@@ -2776,7 +2776,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="29" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:27">
       <c r="A29">
         <v>95</v>
       </c>
@@ -2853,7 +2853,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="30" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:27">
       <c r="A30">
         <v>95</v>
       </c>
@@ -2930,7 +2930,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="31" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:27">
       <c r="A31">
         <v>95</v>
       </c>
@@ -3007,7 +3007,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="32" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:27">
       <c r="A32">
         <v>95</v>
       </c>
@@ -3084,7 +3084,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="33" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:27">
       <c r="A33">
         <v>95</v>
       </c>
@@ -3158,7 +3158,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="34" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:27">
       <c r="A34">
         <v>95</v>
       </c>
@@ -3235,7 +3235,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="35" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:27">
       <c r="A35">
         <v>95</v>
       </c>
@@ -3312,7 +3312,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="36" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:27">
       <c r="A36">
         <v>95</v>
       </c>
@@ -3389,7 +3389,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="37" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:27">
       <c r="A37">
         <v>95</v>
       </c>
@@ -3466,7 +3466,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="38" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:27">
       <c r="A38">
         <v>95</v>
       </c>
@@ -3543,7 +3543,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="39" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:27">
       <c r="A39">
         <v>95</v>
       </c>
@@ -3620,7 +3620,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="40" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:27">
       <c r="A40">
         <v>95</v>
       </c>
@@ -3697,7 +3697,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="41" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:27">
       <c r="A41">
         <v>95</v>
       </c>
@@ -3774,7 +3774,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="42" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:27">
       <c r="A42">
         <v>95</v>
       </c>
@@ -3854,7 +3854,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="43" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:27">
       <c r="A43">
         <v>95</v>
       </c>
@@ -3931,7 +3931,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="44" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:27">
       <c r="A44">
         <v>95</v>
       </c>
@@ -4011,7 +4011,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="45" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:27">
       <c r="A45">
         <v>95</v>
       </c>
@@ -4088,7 +4088,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="46" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:27">
       <c r="A46">
         <v>95</v>
       </c>
@@ -4165,7 +4165,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="47" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:27">
       <c r="A47">
         <v>95</v>
       </c>
@@ -4242,7 +4242,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="48" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:27">
       <c r="A48">
         <v>95</v>
       </c>
@@ -4319,7 +4319,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="49" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:27">
       <c r="A49">
         <v>95</v>
       </c>
@@ -4396,7 +4396,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="50" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:27">
       <c r="A50">
         <v>95</v>
       </c>
@@ -4476,7 +4476,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="51" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:27">
       <c r="A51">
         <v>95</v>
       </c>
@@ -4559,7 +4559,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="52" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:27">
       <c r="A52">
         <v>95</v>
       </c>
@@ -4639,7 +4639,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="53" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:27">
       <c r="A53">
         <v>95</v>
       </c>
@@ -4719,7 +4719,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="54" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:27">
       <c r="A54">
         <v>95</v>
       </c>
@@ -4799,7 +4799,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="55" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:27">
       <c r="A55">
         <v>95</v>
       </c>
@@ -4876,7 +4876,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="56" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:27">
       <c r="A56">
         <v>95</v>
       </c>
@@ -4953,7 +4953,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="57" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:27">
       <c r="A57">
         <v>95</v>
       </c>
@@ -5027,7 +5027,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="58" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:27">
       <c r="A58">
         <v>95</v>
       </c>
@@ -5101,7 +5101,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="59" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:27">
       <c r="A59">
         <v>95</v>
       </c>
@@ -5178,7 +5178,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="60" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:27">
       <c r="A60">
         <v>95</v>
       </c>
@@ -5255,7 +5255,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="61" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:27">
       <c r="A61">
         <v>95</v>
       </c>
@@ -5332,7 +5332,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="62" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:27">
       <c r="A62">
         <v>95</v>
       </c>
@@ -5412,7 +5412,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="63" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:27">
       <c r="A63">
         <v>95</v>
       </c>
@@ -5489,7 +5489,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="64" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:27">
       <c r="A64">
         <v>95</v>
       </c>
@@ -5563,7 +5563,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="65" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:27">
       <c r="A65">
         <v>95</v>
       </c>
@@ -5640,7 +5640,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="66" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:27">
       <c r="A66">
         <v>95</v>
       </c>
@@ -5717,7 +5717,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="67" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:27">
       <c r="A67">
         <v>95</v>
       </c>
@@ -5791,7 +5791,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="68" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:27">
       <c r="A68">
         <v>95</v>
       </c>
@@ -5865,7 +5865,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="69" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:27">
       <c r="A69">
         <v>95</v>
       </c>
@@ -5942,7 +5942,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="70" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:27">
       <c r="A70">
         <v>95</v>
       </c>
@@ -6016,7 +6016,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="71" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:27">
       <c r="A71">
         <v>95</v>
       </c>
@@ -6090,7 +6090,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="72" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:27">
       <c r="A72">
         <v>95</v>
       </c>
@@ -6167,7 +6167,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="73" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:27">
       <c r="A73">
         <v>95</v>
       </c>
@@ -6241,7 +6241,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="74" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:27">
       <c r="A74">
         <v>95</v>
       </c>
@@ -6318,7 +6318,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="75" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:27">
       <c r="A75">
         <v>95</v>
       </c>
@@ -6395,7 +6395,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="76" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:27">
       <c r="A76">
         <v>95</v>
       </c>
@@ -6472,7 +6472,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="77" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:27">
       <c r="A77">
         <v>95</v>
       </c>
@@ -6549,7 +6549,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="78" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:27">
       <c r="A78">
         <v>95</v>
       </c>
@@ -6626,7 +6626,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="79" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:27">
       <c r="A79">
         <v>95</v>
       </c>
@@ -6703,7 +6703,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="80" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:27">
       <c r="A80">
         <v>95</v>
       </c>
@@ -6780,7 +6780,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="81" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:27">
       <c r="A81">
         <v>95</v>
       </c>
@@ -6854,7 +6854,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="82" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:27">
       <c r="A82">
         <v>95</v>
       </c>
@@ -6928,7 +6928,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="83" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:27">
       <c r="A83">
         <v>95</v>
       </c>
@@ -7005,7 +7005,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="84" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:27">
       <c r="A84">
         <v>95</v>
       </c>
@@ -7085,7 +7085,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="85" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:27">
       <c r="A85">
         <v>95</v>
       </c>
@@ -7159,7 +7159,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="86" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:27">
       <c r="A86">
         <v>95</v>
       </c>
@@ -7236,7 +7236,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="87" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:27">
       <c r="A87">
         <v>95</v>
       </c>
@@ -7313,7 +7313,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="88" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:27">
       <c r="A88">
         <v>95</v>
       </c>
@@ -7390,7 +7390,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="89" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:27">
       <c r="A89">
         <v>95</v>
       </c>
@@ -7467,7 +7467,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="90" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:27">
       <c r="A90">
         <v>95</v>
       </c>
@@ -7544,7 +7544,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="91" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:27">
       <c r="A91">
         <v>95</v>
       </c>
@@ -7618,7 +7618,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="92" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:27">
       <c r="A92">
         <v>95</v>
       </c>
@@ -7692,7 +7692,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="93" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:27">
       <c r="A93">
         <v>95</v>
       </c>
@@ -7769,7 +7769,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="94" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:27">
       <c r="A94">
         <v>95</v>
       </c>
@@ -7846,7 +7846,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="95" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:27">
       <c r="A95">
         <v>95</v>
       </c>
@@ -7923,7 +7923,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="96" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:27">
       <c r="A96">
         <v>95</v>
       </c>
@@ -8000,7 +8000,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="97" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:27">
       <c r="A97">
         <v>95</v>
       </c>
@@ -8077,7 +8077,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="98" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:27">
       <c r="A98">
         <v>95</v>
       </c>
@@ -8154,7 +8154,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="99" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:27">
       <c r="A99">
         <v>95</v>
       </c>
@@ -8231,7 +8231,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="100" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:27">
       <c r="A100">
         <v>95</v>
       </c>
@@ -8308,7 +8308,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="101" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:27">
       <c r="A101">
         <v>95</v>
       </c>
@@ -8385,7 +8385,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="102" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:27">
       <c r="A102">
         <v>95</v>
       </c>
@@ -8462,7 +8462,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="103" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:27">
       <c r="A103">
         <v>95</v>
       </c>
@@ -8539,7 +8539,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="104" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:27">
       <c r="A104">
         <v>95</v>
       </c>
@@ -8613,7 +8613,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="105" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:27">
       <c r="A105">
         <v>95</v>
       </c>
@@ -8690,7 +8690,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="106" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:27">
       <c r="A106">
         <v>95</v>
       </c>
@@ -8764,7 +8764,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="107" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:27">
       <c r="A107">
         <v>95</v>
       </c>
@@ -8838,7 +8838,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="108" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:27">
       <c r="A108">
         <v>95</v>
       </c>
@@ -8915,7 +8915,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="109" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:27">
       <c r="A109">
         <v>95</v>
       </c>
@@ -8992,7 +8992,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="110" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:27">
       <c r="A110">
         <v>95</v>
       </c>
@@ -9066,7 +9066,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="111" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:27">
       <c r="A111">
         <v>95</v>
       </c>
@@ -9140,7 +9140,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="112" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:27">
       <c r="A112">
         <v>95</v>
       </c>
@@ -9217,7 +9217,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="113" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:27">
       <c r="A113">
         <v>95</v>
       </c>
@@ -9291,7 +9291,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="114" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:27">
       <c r="A114">
         <v>95</v>
       </c>
@@ -9368,7 +9368,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="115" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:27">
       <c r="A115">
         <v>95</v>
       </c>
@@ -9445,7 +9445,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="116" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:27">
       <c r="A116">
         <v>95</v>
       </c>
@@ -9522,7 +9522,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="117" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:27">
       <c r="A117">
         <v>95</v>
       </c>
@@ -9599,7 +9599,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="118" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:27">
       <c r="A118">
         <v>95</v>
       </c>
@@ -9676,7 +9676,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="119" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:27">
       <c r="A119">
         <v>95</v>
       </c>
@@ -9750,7 +9750,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="120" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:27">
       <c r="A120">
         <v>95</v>
       </c>
@@ -9827,7 +9827,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="121" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:27">
       <c r="A121">
         <v>95</v>
       </c>
@@ -9904,7 +9904,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="122" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:27">
       <c r="A122">
         <v>95</v>
       </c>
@@ -9981,7 +9981,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="123" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:27">
       <c r="A123">
         <v>95</v>
       </c>
@@ -10058,7 +10058,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="124" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:27">
       <c r="A124">
         <v>95</v>
       </c>
@@ -10135,7 +10135,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="125" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:27">
       <c r="A125">
         <v>95</v>
       </c>
@@ -10212,7 +10212,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="126" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:27">
       <c r="A126">
         <v>95</v>
       </c>
@@ -10289,7 +10289,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="127" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:27">
       <c r="A127">
         <v>95</v>
       </c>
@@ -10366,7 +10366,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="128" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:27">
       <c r="A128">
         <v>95</v>
       </c>
@@ -10443,7 +10443,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="129" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:27">
       <c r="A129">
         <v>95</v>
       </c>
@@ -10520,7 +10520,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="130" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:27">
       <c r="A130">
         <v>95</v>
       </c>
@@ -10597,7 +10597,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="131" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:27">
       <c r="A131">
         <v>95</v>
       </c>
@@ -10674,7 +10674,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="132" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:27">
       <c r="A132">
         <v>95</v>
       </c>
@@ -10751,7 +10751,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="133" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:27">
       <c r="A133">
         <v>95</v>
       </c>
@@ -10828,7 +10828,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="134" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:27">
       <c r="A134">
         <v>95</v>
       </c>
@@ -10905,7 +10905,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="135" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:27">
       <c r="A135">
         <v>95</v>
       </c>
@@ -10982,7 +10982,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="136" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:27">
       <c r="A136">
         <v>95</v>
       </c>
@@ -11059,7 +11059,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="137" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:27">
       <c r="A137">
         <v>95</v>
       </c>
@@ -11136,7 +11136,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="138" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:27">
       <c r="A138">
         <v>95</v>
       </c>
@@ -11213,7 +11213,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="139" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:27">
       <c r="A139">
         <v>95</v>
       </c>
@@ -11290,7 +11290,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="140" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:27">
       <c r="A140">
         <v>95</v>
       </c>
@@ -11364,7 +11364,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="141" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:27">
       <c r="A141">
         <v>95</v>
       </c>
@@ -11438,7 +11438,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="142" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:27">
       <c r="A142">
         <v>95</v>
       </c>
@@ -11512,7 +11512,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="143" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:27">
       <c r="A143">
         <v>95</v>
       </c>
@@ -11586,7 +11586,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="144" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:27">
       <c r="A144">
         <v>95</v>
       </c>
@@ -11660,7 +11660,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="145" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:27">
       <c r="A145">
         <v>95</v>
       </c>
@@ -11734,7 +11734,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="146" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:27">
       <c r="A146">
         <v>95</v>
       </c>
@@ -11808,7 +11808,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="147" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:27">
       <c r="A147">
         <v>95</v>
       </c>
@@ -11882,7 +11882,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="148" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:27">
       <c r="A148">
         <v>95</v>
       </c>
@@ -11959,7 +11959,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="149" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:27">
       <c r="A149">
         <v>95</v>
       </c>
@@ -12036,7 +12036,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="150" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:27">
       <c r="A150">
         <v>95</v>
       </c>
@@ -12113,7 +12113,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="151" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:27">
       <c r="A151">
         <v>95</v>
       </c>
@@ -12187,7 +12187,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="152" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:27">
       <c r="A152">
         <v>95</v>
       </c>
@@ -12261,7 +12261,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="153" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:27">
       <c r="A153">
         <v>95</v>
       </c>
@@ -12335,7 +12335,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="154" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:27">
       <c r="A154">
         <v>95</v>
       </c>
@@ -12412,7 +12412,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="155" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:27">
       <c r="A155">
         <v>95</v>
       </c>
@@ -12489,7 +12489,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="156" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:27">
       <c r="A156">
         <v>95</v>
       </c>
@@ -12566,7 +12566,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="157" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:27">
       <c r="A157">
         <v>95</v>
       </c>
@@ -12640,7 +12640,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="158" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:27">
       <c r="A158">
         <v>95</v>
       </c>
@@ -12717,7 +12717,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="159" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:27">
       <c r="A159">
         <v>95</v>
       </c>
@@ -12794,7 +12794,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="160" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:27">
       <c r="A160">
         <v>95</v>
       </c>
@@ -12868,7 +12868,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:27">
       <c r="A161">
         <v>95</v>
       </c>
@@ -12884,8 +12884,68 @@
       <c r="E161">
         <v>1</v>
       </c>
-    </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F161">
+        <v>35</v>
+      </c>
+      <c r="G161">
+        <v>25</v>
+      </c>
+      <c r="H161">
+        <v>15</v>
+      </c>
+      <c r="I161">
+        <v>2</v>
+      </c>
+      <c r="J161">
+        <v>-4</v>
+      </c>
+      <c r="K161">
+        <v>-9</v>
+      </c>
+      <c r="L161">
+        <v>27</v>
+      </c>
+      <c r="M161">
+        <v>15</v>
+      </c>
+      <c r="N161">
+        <v>4</v>
+      </c>
+      <c r="O161">
+        <v>1023</v>
+      </c>
+      <c r="P161">
+        <v>1020</v>
+      </c>
+      <c r="Q161">
+        <v>1007</v>
+      </c>
+      <c r="R161">
+        <v>10</v>
+      </c>
+      <c r="S161">
+        <v>9</v>
+      </c>
+      <c r="T161">
+        <v>5</v>
+      </c>
+      <c r="U161">
+        <v>35</v>
+      </c>
+      <c r="V161">
+        <v>10</v>
+      </c>
+      <c r="X161">
+        <v>0</v>
+      </c>
+      <c r="Y161">
+        <v>1</v>
+      </c>
+      <c r="AA161">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="162" spans="1:27">
       <c r="A162">
         <v>95</v>
       </c>
@@ -12901,8 +12961,65 @@
       <c r="E162">
         <v>1</v>
       </c>
-    </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F162">
+        <v>35</v>
+      </c>
+      <c r="G162">
+        <v>24</v>
+      </c>
+      <c r="H162">
+        <v>13</v>
+      </c>
+      <c r="I162">
+        <v>2</v>
+      </c>
+      <c r="J162">
+        <v>-2</v>
+      </c>
+      <c r="K162">
+        <v>-6</v>
+      </c>
+      <c r="L162">
+        <v>36</v>
+      </c>
+      <c r="M162">
+        <v>17</v>
+      </c>
+      <c r="N162">
+        <v>4</v>
+      </c>
+      <c r="O162">
+        <v>1023</v>
+      </c>
+      <c r="P162">
+        <v>1020</v>
+      </c>
+      <c r="Q162">
+        <v>1006</v>
+      </c>
+      <c r="R162">
+        <v>14</v>
+      </c>
+      <c r="S162">
+        <v>7</v>
+      </c>
+      <c r="T162">
+        <v>2</v>
+      </c>
+      <c r="U162">
+        <v>26</v>
+      </c>
+      <c r="V162">
+        <v>10</v>
+      </c>
+      <c r="X162">
+        <v>0</v>
+      </c>
+      <c r="AA162">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="163" spans="1:27">
       <c r="A163">
         <v>95</v>
       </c>
@@ -12918,8 +13035,68 @@
       <c r="E163">
         <v>1</v>
       </c>
-    </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F163">
+        <v>35</v>
+      </c>
+      <c r="G163">
+        <v>25</v>
+      </c>
+      <c r="H163">
+        <v>15</v>
+      </c>
+      <c r="I163">
+        <v>4</v>
+      </c>
+      <c r="J163">
+        <v>0</v>
+      </c>
+      <c r="K163">
+        <v>-4</v>
+      </c>
+      <c r="L163">
+        <v>41</v>
+      </c>
+      <c r="M163">
+        <v>19</v>
+      </c>
+      <c r="N163">
+        <v>4</v>
+      </c>
+      <c r="O163">
+        <v>1023</v>
+      </c>
+      <c r="P163">
+        <v>1019</v>
+      </c>
+      <c r="Q163">
+        <v>1005</v>
+      </c>
+      <c r="R163">
+        <v>14</v>
+      </c>
+      <c r="S163">
+        <v>8</v>
+      </c>
+      <c r="T163">
+        <v>3</v>
+      </c>
+      <c r="U163">
+        <v>14</v>
+      </c>
+      <c r="V163">
+        <v>8</v>
+      </c>
+      <c r="X163">
+        <v>0</v>
+      </c>
+      <c r="Y163">
+        <v>1</v>
+      </c>
+      <c r="AA163">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="164" spans="1:27">
       <c r="A164">
         <v>95</v>
       </c>
@@ -12935,8 +13112,68 @@
       <c r="E164">
         <v>1</v>
       </c>
-    </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F164">
+        <v>36</v>
+      </c>
+      <c r="G164">
+        <v>26</v>
+      </c>
+      <c r="H164">
+        <v>16</v>
+      </c>
+      <c r="I164">
+        <v>3</v>
+      </c>
+      <c r="J164">
+        <v>-1</v>
+      </c>
+      <c r="K164">
+        <v>-5</v>
+      </c>
+      <c r="L164">
+        <v>38</v>
+      </c>
+      <c r="M164">
+        <v>17</v>
+      </c>
+      <c r="N164">
+        <v>4</v>
+      </c>
+      <c r="O164">
+        <v>1021</v>
+      </c>
+      <c r="P164">
+        <v>1017</v>
+      </c>
+      <c r="Q164">
+        <v>1003</v>
+      </c>
+      <c r="R164">
+        <v>14</v>
+      </c>
+      <c r="S164">
+        <v>9</v>
+      </c>
+      <c r="T164">
+        <v>2</v>
+      </c>
+      <c r="U164">
+        <v>19</v>
+      </c>
+      <c r="V164">
+        <v>8</v>
+      </c>
+      <c r="X164">
+        <v>0</v>
+      </c>
+      <c r="Y164">
+        <v>2</v>
+      </c>
+      <c r="AA164">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="165" spans="1:27">
       <c r="A165">
         <v>95</v>
       </c>
@@ -12952,8 +13189,68 @@
       <c r="E165">
         <v>1</v>
       </c>
-    </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F165">
+        <v>36</v>
+      </c>
+      <c r="G165">
+        <v>26</v>
+      </c>
+      <c r="H165">
+        <v>16</v>
+      </c>
+      <c r="I165">
+        <v>3</v>
+      </c>
+      <c r="J165">
+        <v>-1</v>
+      </c>
+      <c r="K165">
+        <v>-3</v>
+      </c>
+      <c r="L165">
+        <v>36</v>
+      </c>
+      <c r="M165">
+        <v>17</v>
+      </c>
+      <c r="N165">
+        <v>5</v>
+      </c>
+      <c r="O165">
+        <v>1019</v>
+      </c>
+      <c r="P165">
+        <v>1015</v>
+      </c>
+      <c r="Q165">
+        <v>1001</v>
+      </c>
+      <c r="R165">
+        <v>10</v>
+      </c>
+      <c r="S165">
+        <v>9</v>
+      </c>
+      <c r="T165">
+        <v>3</v>
+      </c>
+      <c r="U165">
+        <v>18</v>
+      </c>
+      <c r="V165">
+        <v>6</v>
+      </c>
+      <c r="X165">
+        <v>0</v>
+      </c>
+      <c r="Y165">
+        <v>2</v>
+      </c>
+      <c r="AA165">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="166" spans="1:27">
       <c r="A166">
         <v>95</v>
       </c>
@@ -12969,8 +13266,68 @@
       <c r="E166">
         <v>1</v>
       </c>
-    </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F166">
+        <v>36</v>
+      </c>
+      <c r="G166">
+        <v>26</v>
+      </c>
+      <c r="H166">
+        <v>16</v>
+      </c>
+      <c r="I166">
+        <v>2</v>
+      </c>
+      <c r="J166">
+        <v>-1</v>
+      </c>
+      <c r="K166">
+        <v>-5</v>
+      </c>
+      <c r="L166">
+        <v>31</v>
+      </c>
+      <c r="M166">
+        <v>16</v>
+      </c>
+      <c r="N166">
+        <v>4</v>
+      </c>
+      <c r="O166">
+        <v>1017</v>
+      </c>
+      <c r="P166">
+        <v>1013</v>
+      </c>
+      <c r="Q166">
+        <v>998</v>
+      </c>
+      <c r="R166">
+        <v>10</v>
+      </c>
+      <c r="S166">
+        <v>9</v>
+      </c>
+      <c r="T166">
+        <v>1</v>
+      </c>
+      <c r="U166">
+        <v>35</v>
+      </c>
+      <c r="V166">
+        <v>11</v>
+      </c>
+      <c r="X166">
+        <v>0</v>
+      </c>
+      <c r="Y166">
+        <v>5</v>
+      </c>
+      <c r="AA166">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="167" spans="1:27">
       <c r="A167">
         <v>95</v>
       </c>
@@ -12986,8 +13343,68 @@
       <c r="E167">
         <v>1</v>
       </c>
-    </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F167">
+        <v>36</v>
+      </c>
+      <c r="G167">
+        <v>28</v>
+      </c>
+      <c r="H167">
+        <v>20</v>
+      </c>
+      <c r="I167">
+        <v>3</v>
+      </c>
+      <c r="J167">
+        <v>1</v>
+      </c>
+      <c r="K167">
+        <v>-2</v>
+      </c>
+      <c r="L167">
+        <v>32</v>
+      </c>
+      <c r="M167">
+        <v>17</v>
+      </c>
+      <c r="N167">
+        <v>4</v>
+      </c>
+      <c r="O167">
+        <v>1015</v>
+      </c>
+      <c r="P167">
+        <v>1012</v>
+      </c>
+      <c r="Q167">
+        <v>997</v>
+      </c>
+      <c r="R167">
+        <v>10</v>
+      </c>
+      <c r="S167">
+        <v>8</v>
+      </c>
+      <c r="T167">
+        <v>3</v>
+      </c>
+      <c r="U167">
+        <v>40</v>
+      </c>
+      <c r="V167">
+        <v>10</v>
+      </c>
+      <c r="X167">
+        <v>0</v>
+      </c>
+      <c r="Y167">
+        <v>4</v>
+      </c>
+      <c r="AA167">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="168" spans="1:27">
       <c r="A168">
         <v>95</v>
       </c>
@@ -13003,8 +13420,17 @@
       <c r="E168">
         <v>1</v>
       </c>
-    </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F168">
+        <v>36</v>
+      </c>
+      <c r="G168">
+        <v>27</v>
+      </c>
+      <c r="H168">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="169" spans="1:27">
       <c r="A169">
         <v>95</v>
       </c>
@@ -13020,8 +13446,17 @@
       <c r="E169">
         <v>1</v>
       </c>
-    </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F169">
+        <v>36</v>
+      </c>
+      <c r="G169">
+        <v>24</v>
+      </c>
+      <c r="H169">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="170" spans="1:27">
       <c r="A170">
         <v>95</v>
       </c>
@@ -13037,8 +13472,17 @@
       <c r="E170">
         <v>1</v>
       </c>
-    </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F170">
+        <v>37</v>
+      </c>
+      <c r="G170">
+        <v>27</v>
+      </c>
+      <c r="H170">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="171" spans="1:27">
       <c r="A171">
         <v>95</v>
       </c>
@@ -13054,8 +13498,17 @@
       <c r="E171">
         <v>1</v>
       </c>
-    </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F171">
+        <v>37</v>
+      </c>
+      <c r="G171">
+        <v>27</v>
+      </c>
+      <c r="H171">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="172" spans="1:27">
       <c r="A172">
         <v>95</v>
       </c>
@@ -13071,8 +13524,17 @@
       <c r="E172">
         <v>1</v>
       </c>
-    </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F172">
+        <v>37</v>
+      </c>
+      <c r="G172">
+        <v>27</v>
+      </c>
+      <c r="H172">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="173" spans="1:27">
       <c r="A173">
         <v>95</v>
       </c>
@@ -13089,7 +13551,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:27">
       <c r="A174">
         <v>95</v>
       </c>
@@ -13106,7 +13568,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:27">
       <c r="A175">
         <v>95</v>
       </c>
@@ -13123,7 +13585,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:27">
       <c r="A176">
         <v>95</v>
       </c>
@@ -13140,7 +13602,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:5">
       <c r="A177">
         <v>95</v>
       </c>
@@ -13157,7 +13619,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:5">
       <c r="A178">
         <v>95</v>
       </c>
@@ -13174,7 +13636,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:5">
       <c r="A179">
         <v>95</v>
       </c>
@@ -13191,7 +13653,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:5">
       <c r="A180">
         <v>95</v>
       </c>
@@ -13208,7 +13670,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:5">
       <c r="A181">
         <v>95</v>
       </c>
@@ -13225,7 +13687,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:5">
       <c r="A182">
         <v>95</v>
       </c>
@@ -13242,7 +13704,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:5">
       <c r="A183">
         <v>95</v>
       </c>
@@ -13259,7 +13721,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:5">
       <c r="A184">
         <v>95</v>
       </c>
@@ -13276,7 +13738,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:5">
       <c r="A185">
         <v>95</v>
       </c>
@@ -13293,7 +13755,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:5">
       <c r="A186">
         <v>95</v>
       </c>
@@ -13310,7 +13772,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:5">
       <c r="A187">
         <v>95</v>
       </c>
@@ -13327,7 +13789,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:5">
       <c r="A188">
         <v>95</v>
       </c>
@@ -13344,7 +13806,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:5">
       <c r="A189">
         <v>95</v>
       </c>
@@ -13361,7 +13823,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:5">
       <c r="A190">
         <v>95</v>
       </c>
@@ -13378,7 +13840,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:5">
       <c r="A191">
         <v>95</v>
       </c>
@@ -13395,7 +13857,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:5">
       <c r="A192">
         <v>95</v>
       </c>
@@ -13412,7 +13874,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:5">
       <c r="A193">
         <v>95</v>
       </c>
@@ -13429,7 +13891,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:5">
       <c r="A194">
         <v>95</v>
       </c>
@@ -13446,7 +13908,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:5">
       <c r="A195">
         <v>95</v>
       </c>
@@ -13463,7 +13925,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:5">
       <c r="A196">
         <v>95</v>
       </c>
@@ -13480,7 +13942,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:5">
       <c r="A197">
         <v>95</v>
       </c>
@@ -13497,7 +13959,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:5">
       <c r="A198">
         <v>95</v>
       </c>
@@ -13514,7 +13976,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:5">
       <c r="A199">
         <v>95</v>
       </c>
@@ -13531,7 +13993,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:5">
       <c r="A200">
         <v>95</v>
       </c>
@@ -13548,7 +14010,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:5">
       <c r="A201">
         <v>95</v>
       </c>
@@ -13565,7 +14027,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:5">
       <c r="A202">
         <v>95</v>
       </c>
@@ -13582,7 +14044,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:5">
       <c r="A203">
         <v>95</v>
       </c>
@@ -13599,7 +14061,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:5">
       <c r="A204">
         <v>95</v>
       </c>
@@ -13616,7 +14078,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:5">
       <c r="A205">
         <v>95</v>
       </c>
@@ -13633,7 +14095,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:5">
       <c r="A206">
         <v>95</v>
       </c>
@@ -13650,7 +14112,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:5">
       <c r="A207">
         <v>95</v>
       </c>
@@ -13667,7 +14129,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:5">
       <c r="A208">
         <v>95</v>
       </c>
@@ -13684,7 +14146,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:5">
       <c r="A209">
         <v>95</v>
       </c>
@@ -13701,7 +14163,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:5">
       <c r="A210">
         <v>95</v>
       </c>
@@ -13718,7 +14180,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:5">
       <c r="A211">
         <v>95</v>
       </c>
@@ -13735,7 +14197,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:5">
       <c r="A212">
         <v>95</v>
       </c>
@@ -13752,7 +14214,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:5">
       <c r="A213">
         <v>95</v>
       </c>
@@ -13769,7 +14231,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:5">
       <c r="A214">
         <v>95</v>
       </c>
@@ -13786,7 +14248,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:5">
       <c r="A215">
         <v>95</v>
       </c>
@@ -13803,7 +14265,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:5">
       <c r="A216">
         <v>95</v>
       </c>
@@ -13820,7 +14282,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:5">
       <c r="A217">
         <v>95</v>
       </c>
@@ -13837,7 +14299,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:5">
       <c r="A218">
         <v>95</v>
       </c>
@@ -13854,7 +14316,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:5">
       <c r="A219">
         <v>95</v>
       </c>
@@ -13871,7 +14333,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:5">
       <c r="A220">
         <v>95</v>
       </c>
@@ -13888,7 +14350,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:5">
       <c r="A221">
         <v>95</v>
       </c>
@@ -13905,7 +14367,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:5">
       <c r="A222">
         <v>95</v>
       </c>
@@ -13922,7 +14384,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:5">
       <c r="A223">
         <v>95</v>
       </c>
@@ -13939,7 +14401,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:5">
       <c r="A224">
         <v>95</v>
       </c>
@@ -13956,7 +14418,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:5">
       <c r="A225">
         <v>95</v>
       </c>
@@ -13973,7 +14435,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:5">
       <c r="A226">
         <v>95</v>
       </c>
@@ -13990,7 +14452,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:5">
       <c r="A227">
         <v>95</v>
       </c>
@@ -14007,7 +14469,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:5">
       <c r="A228">
         <v>95</v>
       </c>
@@ -14024,7 +14486,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:5">
       <c r="A229">
         <v>95</v>
       </c>
@@ -14041,7 +14503,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:5">
       <c r="A230">
         <v>95</v>
       </c>
@@ -14058,7 +14520,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:5">
       <c r="A231">
         <v>95</v>
       </c>
@@ -14075,7 +14537,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:5">
       <c r="A232">
         <v>95</v>
       </c>
@@ -14092,7 +14554,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:5">
       <c r="A233">
         <v>95</v>
       </c>
@@ -14109,7 +14571,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:5">
       <c r="A234">
         <v>95</v>
       </c>
@@ -14126,7 +14588,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:5">
       <c r="A235">
         <v>95</v>
       </c>
@@ -14143,7 +14605,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:5">
       <c r="A236">
         <v>95</v>
       </c>
@@ -14160,7 +14622,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:5">
       <c r="A237">
         <v>95</v>
       </c>
@@ -14177,7 +14639,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="238" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:5">
       <c r="A238">
         <v>95</v>
       </c>
@@ -14194,7 +14656,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="239" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:5">
       <c r="A239">
         <v>95</v>
       </c>
@@ -14211,7 +14673,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="240" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:5">
       <c r="A240">
         <v>95</v>
       </c>
@@ -14228,7 +14690,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:5">
       <c r="A241">
         <v>95</v>
       </c>
@@ -14245,7 +14707,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:5">
       <c r="A242">
         <v>95</v>
       </c>
@@ -14262,7 +14724,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="243" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:5">
       <c r="A243">
         <v>95</v>
       </c>
@@ -14279,7 +14741,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="244" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:5">
       <c r="A244">
         <v>95</v>
       </c>
@@ -14296,7 +14758,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="245" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:5">
       <c r="A245">
         <v>95</v>
       </c>
@@ -14313,7 +14775,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="246" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:5">
       <c r="A246">
         <v>95</v>
       </c>
@@ -14330,7 +14792,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="247" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:5">
       <c r="A247">
         <v>95</v>
       </c>
@@ -14347,7 +14809,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="248" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:5">
       <c r="A248">
         <v>95</v>
       </c>
@@ -14364,7 +14826,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="249" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:5">
       <c r="A249">
         <v>95</v>
       </c>
@@ -14381,7 +14843,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="250" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:5">
       <c r="A250">
         <v>95</v>
       </c>
@@ -14398,7 +14860,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="251" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:5">
       <c r="A251">
         <v>95</v>
       </c>
@@ -14415,7 +14877,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="252" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:5">
       <c r="A252">
         <v>95</v>
       </c>
@@ -14432,7 +14894,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="253" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:5">
       <c r="A253">
         <v>95</v>
       </c>
@@ -14449,7 +14911,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="254" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:5">
       <c r="A254">
         <v>95</v>
       </c>
@@ -14466,7 +14928,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="255" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:5">
       <c r="A255">
         <v>95</v>
       </c>
@@ -14483,7 +14945,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="256" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:5">
       <c r="A256">
         <v>95</v>
       </c>
@@ -14500,7 +14962,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="257" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:5">
       <c r="A257">
         <v>95</v>
       </c>
@@ -14517,7 +14979,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="258" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:5">
       <c r="A258">
         <v>95</v>
       </c>
@@ -14534,7 +14996,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="259" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:5">
       <c r="A259">
         <v>95</v>
       </c>
@@ -14551,7 +15013,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="260" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:5">
       <c r="A260">
         <v>95</v>
       </c>
@@ -14568,7 +15030,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="261" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:5">
       <c r="A261">
         <v>95</v>
       </c>
@@ -14585,7 +15047,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="262" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:5">
       <c r="A262">
         <v>95</v>
       </c>
@@ -14602,7 +15064,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="263" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:5">
       <c r="A263">
         <v>95</v>
       </c>
@@ -14619,7 +15081,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="264" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:5">
       <c r="A264">
         <v>95</v>
       </c>
@@ -14636,7 +15098,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="265" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:5">
       <c r="A265">
         <v>95</v>
       </c>
@@ -14653,7 +15115,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="266" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:5">
       <c r="A266">
         <v>95</v>
       </c>
@@ -14670,7 +15132,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="267" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:5">
       <c r="A267">
         <v>95</v>
       </c>
@@ -14687,7 +15149,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="268" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:5">
       <c r="A268">
         <v>95</v>
       </c>
@@ -14704,7 +15166,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="269" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:5">
       <c r="A269">
         <v>95</v>
       </c>
@@ -14721,7 +15183,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="270" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:5">
       <c r="A270">
         <v>95</v>
       </c>
@@ -14738,7 +15200,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="271" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:5">
       <c r="A271">
         <v>95</v>
       </c>
@@ -14755,7 +15217,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="272" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:5">
       <c r="A272">
         <v>95</v>
       </c>
@@ -14772,7 +15234,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="273" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:5">
       <c r="A273">
         <v>95</v>
       </c>
@@ -14789,7 +15251,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="274" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:5">
       <c r="A274">
         <v>95</v>
       </c>
@@ -14806,7 +15268,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="275" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:5">
       <c r="A275">
         <v>95</v>
       </c>
@@ -14823,7 +15285,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="276" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:5">
       <c r="A276">
         <v>95</v>
       </c>
@@ -14840,7 +15302,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="277" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:5">
       <c r="A277">
         <v>95</v>
       </c>
@@ -14857,7 +15319,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="278" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:5">
       <c r="A278">
         <v>95</v>
       </c>
@@ -14874,7 +15336,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="279" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:5">
       <c r="A279">
         <v>95</v>
       </c>
@@ -14891,7 +15353,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="280" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:5">
       <c r="A280">
         <v>95</v>
       </c>
@@ -14908,7 +15370,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="281" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:5">
       <c r="A281">
         <v>95</v>
       </c>
@@ -14925,7 +15387,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="282" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:5">
       <c r="A282">
         <v>95</v>
       </c>
@@ -14942,7 +15404,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="283" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:5">
       <c r="A283">
         <v>95</v>
       </c>
@@ -14959,7 +15421,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="284" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:5">
       <c r="A284">
         <v>95</v>
       </c>
@@ -14976,7 +15438,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="285" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:5">
       <c r="A285">
         <v>95</v>
       </c>
@@ -14993,7 +15455,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="286" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:5">
       <c r="A286">
         <v>95</v>
       </c>
@@ -15010,7 +15472,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="287" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:5">
       <c r="A287">
         <v>95</v>
       </c>
@@ -15027,7 +15489,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="288" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:5">
       <c r="A288">
         <v>95</v>
       </c>
@@ -15044,7 +15506,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="289" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:5">
       <c r="A289">
         <v>95</v>
       </c>
@@ -15061,7 +15523,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="290" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:5">
       <c r="A290">
         <v>95</v>
       </c>
@@ -15078,7 +15540,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="291" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:5">
       <c r="A291">
         <v>95</v>
       </c>
@@ -15095,7 +15557,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="292" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:5">
       <c r="A292">
         <v>95</v>
       </c>
@@ -15112,7 +15574,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="293" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:5">
       <c r="A293">
         <v>95</v>
       </c>
@@ -15129,7 +15591,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="294" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:5">
       <c r="A294">
         <v>95</v>
       </c>
@@ -15146,7 +15608,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="295" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:5">
       <c r="A295">
         <v>95</v>
       </c>
@@ -15163,7 +15625,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="296" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:5">
       <c r="A296">
         <v>95</v>
       </c>
@@ -15180,7 +15642,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="297" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:5">
       <c r="A297">
         <v>95</v>
       </c>
@@ -15197,7 +15659,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="298" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:5">
       <c r="A298">
         <v>95</v>
       </c>
@@ -15214,7 +15676,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="299" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:5">
       <c r="A299">
         <v>95</v>
       </c>
@@ -15231,7 +15693,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="300" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:5">
       <c r="A300">
         <v>95</v>
       </c>
@@ -15248,7 +15710,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="301" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:5">
       <c r="A301">
         <v>95</v>
       </c>
@@ -15265,7 +15727,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="302" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:5">
       <c r="A302">
         <v>95</v>
       </c>
@@ -15282,7 +15744,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="303" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:5">
       <c r="A303">
         <v>95</v>
       </c>
@@ -15299,7 +15761,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="304" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:5">
       <c r="A304">
         <v>95</v>
       </c>
@@ -15316,7 +15778,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="305" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:5">
       <c r="A305">
         <v>95</v>
       </c>
@@ -15333,7 +15795,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="306" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:5">
       <c r="A306">
         <v>95</v>
       </c>
@@ -15350,7 +15812,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="307" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:5">
       <c r="A307">
         <v>95</v>
       </c>
@@ -15367,7 +15829,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="308" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:5">
       <c r="A308">
         <v>95</v>
       </c>
@@ -15384,7 +15846,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="309" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:5">
       <c r="A309">
         <v>95</v>
       </c>
@@ -15401,7 +15863,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="310" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:5">
       <c r="A310">
         <v>95</v>
       </c>
@@ -15418,7 +15880,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="311" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:5">
       <c r="A311">
         <v>95</v>
       </c>
@@ -15435,7 +15897,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="312" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:5">
       <c r="A312">
         <v>95</v>
       </c>
@@ -15452,7 +15914,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="313" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:5">
       <c r="A313">
         <v>95</v>
       </c>
@@ -15469,7 +15931,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="314" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:5">
       <c r="A314">
         <v>95</v>
       </c>
@@ -15486,7 +15948,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="315" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:5">
       <c r="A315">
         <v>95</v>
       </c>
@@ -15503,7 +15965,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="316" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:5">
       <c r="A316">
         <v>95</v>
       </c>
@@ -15520,7 +15982,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="317" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:5">
       <c r="A317">
         <v>95</v>
       </c>
@@ -15537,7 +15999,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="318" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:5">
       <c r="A318">
         <v>95</v>
       </c>
@@ -15554,7 +16016,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="319" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:5">
       <c r="A319">
         <v>95</v>
       </c>
@@ -15571,7 +16033,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="320" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:5">
       <c r="A320">
         <v>95</v>
       </c>
@@ -15588,7 +16050,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="321" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:5">
       <c r="A321">
         <v>95</v>
       </c>
@@ -15605,7 +16067,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="322" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:5">
       <c r="A322">
         <v>95</v>
       </c>
@@ -15622,7 +16084,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="323" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:5">
       <c r="A323">
         <v>95</v>
       </c>
@@ -15639,7 +16101,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="324" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:5">
       <c r="A324">
         <v>95</v>
       </c>
@@ -15656,7 +16118,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="325" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:5">
       <c r="A325">
         <v>95</v>
       </c>
@@ -15673,7 +16135,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="326" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:5">
       <c r="A326">
         <v>95</v>
       </c>
@@ -15690,7 +16152,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="327" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:5">
       <c r="A327">
         <v>95</v>
       </c>
@@ -15707,7 +16169,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="328" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:5">
       <c r="A328">
         <v>95</v>
       </c>
@@ -15724,7 +16186,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="329" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:5">
       <c r="A329">
         <v>95</v>
       </c>
@@ -15741,7 +16203,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="330" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:5">
       <c r="A330">
         <v>95</v>
       </c>
@@ -15758,7 +16220,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="331" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:5">
       <c r="A331">
         <v>95</v>
       </c>
@@ -15775,7 +16237,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="332" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:5">
       <c r="A332">
         <v>95</v>
       </c>
@@ -15792,7 +16254,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="333" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:5">
       <c r="A333">
         <v>95</v>
       </c>
@@ -15809,7 +16271,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="334" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:5">
       <c r="A334">
         <v>95</v>
       </c>
@@ -15826,7 +16288,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="335" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:5">
       <c r="A335">
         <v>95</v>
       </c>
@@ -15843,7 +16305,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="336" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:5">
       <c r="A336">
         <v>95</v>
       </c>
@@ -15860,7 +16322,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="337" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:5">
       <c r="A337">
         <v>95</v>
       </c>
@@ -15877,7 +16339,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="338" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:5">
       <c r="A338">
         <v>95</v>
       </c>
@@ -15894,7 +16356,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="339" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:5">
       <c r="A339">
         <v>95</v>
       </c>
@@ -15911,7 +16373,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="340" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:5">
       <c r="A340">
         <v>95</v>
       </c>
@@ -15928,7 +16390,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="341" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:5">
       <c r="A341">
         <v>95</v>
       </c>
@@ -15945,7 +16407,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="342" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:5">
       <c r="A342">
         <v>95</v>
       </c>
@@ -15962,7 +16424,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="343" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:5">
       <c r="A343">
         <v>95</v>
       </c>
@@ -15979,7 +16441,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="344" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:5">
       <c r="A344">
         <v>95</v>
       </c>
@@ -15996,7 +16458,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="345" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:5">
       <c r="A345">
         <v>95</v>
       </c>
@@ -16013,7 +16475,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="346" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:5">
       <c r="A346">
         <v>95</v>
       </c>
@@ -16030,7 +16492,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="347" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:5">
       <c r="A347">
         <v>95</v>
       </c>
@@ -16047,7 +16509,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="348" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:5">
       <c r="A348">
         <v>95</v>
       </c>
@@ -16064,7 +16526,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="349" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:5">
       <c r="A349">
         <v>95</v>
       </c>
@@ -16081,7 +16543,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="350" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:5">
       <c r="A350">
         <v>95</v>
       </c>
@@ -16098,7 +16560,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="351" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:5">
       <c r="A351">
         <v>95</v>
       </c>
@@ -16115,7 +16577,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="352" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:5">
       <c r="A352">
         <v>95</v>
       </c>
@@ -16132,7 +16594,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="353" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:5">
       <c r="A353">
         <v>95</v>
       </c>
@@ -16149,7 +16611,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="354" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:5">
       <c r="A354">
         <v>95</v>
       </c>
@@ -16166,7 +16628,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="355" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:5">
       <c r="A355">
         <v>95</v>
       </c>
@@ -16183,7 +16645,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="356" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:5">
       <c r="A356">
         <v>95</v>
       </c>
@@ -16200,7 +16662,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="357" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:5">
       <c r="A357">
         <v>95</v>
       </c>
@@ -16217,7 +16679,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="358" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:5">
       <c r="A358">
         <v>95</v>
       </c>
@@ -16234,7 +16696,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="359" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:5">
       <c r="A359">
         <v>95</v>
       </c>
@@ -16251,7 +16713,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="360" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:5">
       <c r="A360">
         <v>95</v>
       </c>
@@ -16268,7 +16730,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="361" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:5">
       <c r="A361">
         <v>95</v>
       </c>
@@ -16285,7 +16747,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="362" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:5">
       <c r="A362">
         <v>95</v>
       </c>
@@ -16302,7 +16764,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="363" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:5">
       <c r="A363">
         <v>95</v>
       </c>
@@ -16319,7 +16781,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="364" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:5">
       <c r="A364">
         <v>95</v>
       </c>
@@ -16336,7 +16798,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="365" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:5">
       <c r="A365">
         <v>95</v>
       </c>
@@ -16353,7 +16815,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="366" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:5">
       <c r="A366">
         <v>95</v>
       </c>
@@ -16381,7 +16843,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -16393,7 +16855,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
